--- a/shop_DBER图.xlsx
+++ b/shop_DBER图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\github\shop-adm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E14DF75-ED81-4FB3-9B65-973A0B2E7CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D25810-FD55-4A47-AF79-BC56F0FB4512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF32B2FC-F742-4652-A6F8-5F3B7BFA80F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
   <si>
     <t>bigint</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ns_lblpos（标签位置表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ns_cat（目录表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,18 +324,6 @@
   </si>
   <si>
     <t>catimg_id(NN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_id(NN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lblpos_id(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lblpos_id(NN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +698,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1495,70 +1500,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="矩形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCAE953-456D-4096-BBF4-5484177E2845}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5495925" y="3486150"/>
-          <a:ext cx="3381375" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2686,84 +2627,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="连接符: 肘形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5B6332-5695-4F00-A809-A074464A50E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="43" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8877300" y="3600450"/>
-          <a:ext cx="1085850" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 59649"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="矩形 42">
+        <xdr:cNvPr id="36" name="矩形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B811568-73AB-4A6F-9B96-BCA1AA38A203}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA0EFEA-038B-4CA9-809E-CEE1574EB90A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,8 +2651,72 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9963150" y="3686175"/>
+          <a:off x="9982200" y="4019550"/>
           <a:ext cx="3381375" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0886C2E1-C07A-49B7-A8E2-394E8BF72E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972675" y="3838575"/>
+          <a:ext cx="3419475" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,12 +3075,12 @@
     <row r="3" spans="2:9" ht="15" thickBot="1"/>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
@@ -3343,23 +3287,24 @@
     </row>
     <row r="16" spans="2:9" ht="15" thickBot="1"/>
     <row r="17" spans="2:14" ht="15" thickBot="1">
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="L17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="L18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3380,15 +3325,9 @@
       <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="L19" s="13" t="s">
         <v>38</v>
       </c>
@@ -3409,17 +3348,11 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="L20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>32</v>
@@ -3438,17 +3371,11 @@
       <c r="D21" s="9">
         <v>50</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="L21" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>0</v>
@@ -3467,17 +3394,11 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="L22" s="13" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>0</v>
@@ -3496,20 +3417,14 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
       <c r="L23" s="13" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="9">
         <v>0</v>
@@ -3525,23 +3440,17 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
       <c r="L24" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -3554,17 +3463,11 @@
       <c r="D25" s="9">
         <v>50</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
-        <v>50</v>
-      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
       <c r="L25" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>1</v>
@@ -3583,26 +3486,20 @@
       <c r="D26" s="9">
         <v>50</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9">
-        <v>50</v>
-      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="L26" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
@@ -3612,26 +3509,20 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15" thickBot="1">
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="L27" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
@@ -3641,14 +3532,17 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="12">
-        <v>1</v>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="L28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" thickBot="1">
@@ -3661,11 +3555,28 @@
       <c r="D29" s="12">
         <v>1</v>
       </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="L29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="L30" s="30"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1"/>
     <row r="33" spans="2:14">
       <c r="G33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
@@ -3683,7 +3594,7 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -3777,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5"/>
@@ -3940,7 +3851,7 @@
         <v>50</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="22"/>
@@ -4014,7 +3925,7 @@
     </row>
     <row r="49" spans="2:14" ht="15" thickBot="1">
       <c r="B49" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -4141,17 +4052,17 @@
     <row r="62" spans="2:14" ht="15" thickBot="1"/>
     <row r="63" spans="2:14">
       <c r="B63" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="22"/>
       <c r="G63" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="22"/>
       <c r="L63" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M63" s="23"/>
       <c r="N63" s="22"/>
@@ -4187,7 +4098,7 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -4196,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>0</v>
@@ -4205,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>0</v>
@@ -4216,7 +4127,7 @@
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -4225,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>1</v>
@@ -4234,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>1</v>
@@ -4245,7 +4156,7 @@
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -4254,7 +4165,7 @@
         <v>100</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>1</v>
@@ -4263,7 +4174,7 @@
         <v>100</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>1</v>
@@ -4274,7 +4185,7 @@
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -4283,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>0</v>
@@ -4292,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>1</v>
@@ -4303,7 +4214,7 @@
     </row>
     <row r="69" spans="2:14" ht="15" thickBot="1">
       <c r="B69" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>11</v>
@@ -4312,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>11</v>
@@ -4321,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>1</v>
@@ -4332,7 +4243,7 @@
     </row>
     <row r="70" spans="2:14">
       <c r="L70" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>1</v>
@@ -4343,7 +4254,7 @@
     </row>
     <row r="71" spans="2:14">
       <c r="L71" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>11</v>
@@ -4354,7 +4265,7 @@
     </row>
     <row r="72" spans="2:14" ht="15" thickBot="1">
       <c r="L72" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>4</v>
@@ -4365,17 +4276,17 @@
     </row>
     <row r="73" spans="2:14">
       <c r="B73" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="22"/>
       <c r="G73" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="5"/>
       <c r="L73" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>1</v>
@@ -4404,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>4</v>
@@ -4415,7 +4326,7 @@
     </row>
     <row r="75" spans="2:14">
       <c r="B75" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
@@ -4424,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>0</v>
@@ -4433,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>1</v>
@@ -4444,7 +4355,7 @@
     </row>
     <row r="76" spans="2:14">
       <c r="B76" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
@@ -4453,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>0</v>
@@ -4462,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>1</v>
@@ -4473,7 +4384,7 @@
     </row>
     <row r="77" spans="2:14" ht="15" thickBot="1">
       <c r="B77" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>0</v>
@@ -4482,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>0</v>
@@ -4491,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>1</v>
@@ -4502,7 +4413,7 @@
     </row>
     <row r="78" spans="2:14" ht="15" thickBot="1">
       <c r="L78" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M78" s="11" t="s">
         <v>1</v>
